--- a/biology/Botanique/Cercle_européen_d'étude_des_gentianacées/Cercle_européen_d'étude_des_gentianacées.xlsx
+++ b/biology/Botanique/Cercle_européen_d'étude_des_gentianacées/Cercle_européen_d'étude_des_gentianacées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cercle_europ%C3%A9en_d%27%C3%A9tude_des_gentianac%C3%A9es</t>
+          <t>Cercle_européen_d'étude_des_gentianacées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cercle Européen d'Étude des Gentianacées (CEEG) est une association culturelle suisse, seul cercle en Europe consacré aux Gentianes. Il a été fondé en 1993 et la direction est assurée par Charles Jolles, Henri de Seidlitz et Guilhem Mansion. 
 Il a pour but de favoriser la connaissance et les échanges d'informations concernant toutes les espèces appartenant à la famille des Gentianacées et notamment la gentiane jaune ou grande gentiane (Gentiana lutea L.).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cercle_europ%C3%A9en_d%27%C3%A9tude_des_gentianac%C3%A9es</t>
+          <t>Cercle_européen_d'étude_des_gentianacées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Champs d'activité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En pratique, le Cercle s'intéresse aux gentianes sous les aspects suivants :
 agronomique ;
